--- a/hyperparameters-graphs/Hyperparameter graphs.xlsx
+++ b/hyperparameters-graphs/Hyperparameter graphs.xlsx
@@ -128,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,11 +151,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDFE2E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDFE2E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -194,6 +205,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -924,10 +941,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$35</c:f>
+              <c:f>OpenNLP!$C$29:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -948,16 +965,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$D$29:$D$35</c:f>
+              <c:f>OpenNLP!$D$29:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>50.75</c:v>
                 </c:pt>
@@ -978,6 +1004,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>51.33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.52</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,10 +1064,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$35</c:f>
+              <c:f>OpenNLP!$C$29:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1053,16 +1088,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$E$29:$E$35</c:f>
+              <c:f>OpenNLP!$E$29:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>47.39</c:v>
                 </c:pt>
@@ -1083,6 +1127,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>47.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1134,10 +1187,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$35</c:f>
+              <c:f>OpenNLP!$C$29:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1158,16 +1211,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$F$29:$F$35</c:f>
+              <c:f>OpenNLP!$F$29:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>50.04</c:v>
                 </c:pt>
@@ -1188,6 +1250,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>54.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,10 +1310,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$35</c:f>
+              <c:f>OpenNLP!$C$29:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1263,16 +1334,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$G$29:$G$35</c:f>
+              <c:f>OpenNLP!$G$29:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>55.83</c:v>
                 </c:pt>
@@ -1293,6 +1373,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,7 +1473,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4388,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4630,6 +4719,57 @@
       </c>
       <c r="G35" s="10">
         <v>57.3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C36" s="14">
+        <v>150</v>
+      </c>
+      <c r="D36" s="15">
+        <v>51.31</v>
+      </c>
+      <c r="E36" s="15">
+        <v>47.56</v>
+      </c>
+      <c r="F36" s="15">
+        <v>52.02</v>
+      </c>
+      <c r="G36" s="15">
+        <v>57.47</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C37" s="14">
+        <v>170</v>
+      </c>
+      <c r="D37" s="15">
+        <v>51.52</v>
+      </c>
+      <c r="E37" s="15">
+        <v>47.43</v>
+      </c>
+      <c r="F37" s="15">
+        <v>52.61</v>
+      </c>
+      <c r="G37" s="15">
+        <v>57.49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C38" s="14">
+        <v>200</v>
+      </c>
+      <c r="D38" s="15">
+        <v>51.38</v>
+      </c>
+      <c r="E38" s="15">
+        <v>47.58</v>
+      </c>
+      <c r="F38" s="15">
+        <v>52.59</v>
+      </c>
+      <c r="G38" s="15">
+        <v>57.73</v>
       </c>
     </row>
   </sheetData>

--- a/hyperparameters-graphs/Hyperparameter graphs.xlsx
+++ b/hyperparameters-graphs/Hyperparameter graphs.xlsx
@@ -290,17 +290,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$5:$C$7</c:f>
+              <c:f>OpenNLP!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -308,17 +320,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$D$5:$D$7</c:f>
+              <c:f>OpenNLP!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>49.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50.9</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>50.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>49.09</c:v>
                 </c:pt>
               </c:numCache>
@@ -371,17 +395,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$5:$C$7</c:f>
+              <c:f>OpenNLP!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -389,17 +425,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$E$5:$E$7</c:f>
+              <c:f>OpenNLP!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>46.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>48.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>47.59</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>46.41</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>44.78</c:v>
                 </c:pt>
               </c:numCache>
@@ -452,17 +500,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$5:$C$7</c:f>
+              <c:f>OpenNLP!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -470,17 +530,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$F$5:$F$7</c:f>
+              <c:f>OpenNLP!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>52.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.35</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>50.76</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>50.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>50.65</c:v>
                 </c:pt>
               </c:numCache>
@@ -533,17 +605,29 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$5:$C$7</c:f>
+              <c:f>OpenNLP!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -551,17 +635,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$G$5:$G$7</c:f>
+              <c:f>OpenNLP!$G$5:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>49.27</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>56.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>56.87</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>55.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>54.56</c:v>
                 </c:pt>
               </c:numCache>
@@ -906,7 +1002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$D$28</c:f>
+              <c:f>OpenNLP!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -941,7 +1037,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$38</c:f>
+              <c:f>OpenNLP!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -980,7 +1076,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$D$29:$D$38</c:f>
+              <c:f>OpenNLP!$D$33:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1029,7 +1125,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$E$28</c:f>
+              <c:f>OpenNLP!$E$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1064,7 +1160,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$38</c:f>
+              <c:f>OpenNLP!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1103,7 +1199,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$E$29:$E$38</c:f>
+              <c:f>OpenNLP!$E$33:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1152,7 +1248,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$F$28</c:f>
+              <c:f>OpenNLP!$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1187,7 +1283,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$38</c:f>
+              <c:f>OpenNLP!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1226,7 +1322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$F$29:$F$38</c:f>
+              <c:f>OpenNLP!$F$33:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1275,7 +1371,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$G$28</c:f>
+              <c:f>OpenNLP!$G$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1310,7 +1406,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$29:$C$38</c:f>
+              <c:f>OpenNLP!$C$33:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1349,7 +1445,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$G$29:$G$38</c:f>
+              <c:f>OpenNLP!$G$33:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1770,10 +1866,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$10</c:f>
+              <c:f>Spacy!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1791,16 +1887,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$D$5:$D$10</c:f>
+              <c:f>Spacy!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>45.7</c:v>
                 </c:pt>
@@ -1818,6 +1917,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>46.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,10 +1971,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$10</c:f>
+              <c:f>Spacy!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1890,16 +1992,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$E$5:$E$10</c:f>
+              <c:f>Spacy!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>44.48</c:v>
                 </c:pt>
@@ -1917,6 +2022,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>45.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,10 +2076,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$10</c:f>
+              <c:f>Spacy!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1989,16 +2097,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$F$5:$F$10</c:f>
+              <c:f>Spacy!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>39.07</c:v>
                 </c:pt>
@@ -2016,6 +2127,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>41.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,10 +2181,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Spacy!$C$5:$C$10</c:f>
+              <c:f>Spacy!$C$5:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2088,16 +2202,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Spacy!$G$5:$G$10</c:f>
+              <c:f>Spacy!$G$5:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>46.96</c:v>
                 </c:pt>
@@ -2115,6 +2232,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>48.38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4073,8 +4193,8 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4104,14 +4224,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4477,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,232 +4663,300 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="6">
-        <v>5</v>
-      </c>
-      <c r="D6" s="11">
-        <v>50.9</v>
-      </c>
-      <c r="E6" s="11">
-        <v>47.59</v>
-      </c>
-      <c r="F6" s="11">
-        <v>50.76</v>
-      </c>
-      <c r="G6" s="11">
-        <v>56.87</v>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>52.05</v>
+      </c>
+      <c r="E6" s="10">
+        <v>48.9</v>
+      </c>
+      <c r="F6" s="10">
+        <v>52.52</v>
+      </c>
+      <c r="G6" s="10">
+        <v>56.35</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>52.38</v>
+      </c>
+      <c r="E7" s="10">
+        <v>48.12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>52.35</v>
+      </c>
+      <c r="G7" s="10">
+        <v>56.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>5</v>
+      </c>
+      <c r="D8" s="11">
+        <v>50.9</v>
+      </c>
+      <c r="E8" s="11">
+        <v>47.59</v>
+      </c>
+      <c r="F8" s="11">
+        <v>50.76</v>
+      </c>
+      <c r="G8" s="11">
+        <v>56.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="12">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13">
+        <v>50.85</v>
+      </c>
+      <c r="E9" s="13">
+        <v>46.41</v>
+      </c>
+      <c r="F9" s="13">
+        <v>50.64</v>
+      </c>
+      <c r="G9" s="13">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="12">
+        <v>7</v>
+      </c>
+      <c r="D10" s="13">
+        <v>50.21</v>
+      </c>
+      <c r="E10" s="13">
+        <v>46.34</v>
+      </c>
+      <c r="F10" s="13">
+        <v>50.73</v>
+      </c>
+      <c r="G10" s="13">
+        <v>55.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D11" s="10">
         <v>49.09</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E11" s="10">
         <v>44.78</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F11" s="10">
         <v>50.65</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G11" s="10">
         <v>54.56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="9" t="s">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="5">
-        <v>70</v>
-      </c>
-      <c r="D29" s="10">
-        <v>50.75</v>
-      </c>
-      <c r="E29" s="10">
-        <v>47.39</v>
-      </c>
-      <c r="F29" s="10">
-        <v>50.04</v>
-      </c>
-      <c r="G29" s="10">
-        <v>55.83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="12">
-        <v>80</v>
-      </c>
-      <c r="D30" s="13">
-        <v>50.85</v>
-      </c>
-      <c r="E30" s="13">
-        <v>47.51</v>
-      </c>
-      <c r="F30" s="13">
-        <v>50.52</v>
-      </c>
-      <c r="G30" s="13">
-        <v>56.27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5">
-        <v>90</v>
-      </c>
-      <c r="D31" s="10">
-        <v>50.91</v>
-      </c>
-      <c r="E31" s="10">
-        <v>47.54</v>
-      </c>
-      <c r="F31" s="10">
-        <v>50.75</v>
-      </c>
-      <c r="G31" s="10">
-        <v>56.52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="6">
-        <v>100</v>
-      </c>
-      <c r="D32" s="11">
-        <v>50.9</v>
-      </c>
-      <c r="E32" s="11">
-        <v>47.59</v>
-      </c>
-      <c r="F32" s="11">
-        <v>50.76</v>
-      </c>
-      <c r="G32" s="11">
-        <v>56.87</v>
       </c>
     </row>
     <row r="33" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D33" s="10">
-        <v>50.94</v>
+        <v>50.75</v>
       </c>
       <c r="E33" s="10">
-        <v>47.67</v>
+        <v>47.39</v>
       </c>
       <c r="F33" s="10">
-        <v>51.22</v>
+        <v>50.04</v>
       </c>
       <c r="G33" s="10">
-        <v>57.16</v>
+        <v>55.83</v>
       </c>
     </row>
     <row r="34" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="12">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D34" s="13">
-        <v>51.19</v>
+        <v>50.85</v>
       </c>
       <c r="E34" s="13">
-        <v>47.81</v>
+        <v>47.51</v>
       </c>
       <c r="F34" s="13">
-        <v>51.81</v>
+        <v>50.52</v>
       </c>
       <c r="G34" s="13">
-        <v>57.27</v>
+        <v>56.27</v>
       </c>
     </row>
     <row r="35" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
+        <v>90</v>
+      </c>
+      <c r="D35" s="10">
+        <v>50.91</v>
+      </c>
+      <c r="E35" s="10">
+        <v>47.54</v>
+      </c>
+      <c r="F35" s="10">
+        <v>50.75</v>
+      </c>
+      <c r="G35" s="10">
+        <v>56.52</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="6">
+        <v>100</v>
+      </c>
+      <c r="D36" s="11">
+        <v>50.9</v>
+      </c>
+      <c r="E36" s="11">
+        <v>47.59</v>
+      </c>
+      <c r="F36" s="11">
+        <v>50.76</v>
+      </c>
+      <c r="G36" s="11">
+        <v>56.87</v>
+      </c>
+    </row>
+    <row r="37" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="5">
+        <v>110</v>
+      </c>
+      <c r="D37" s="10">
+        <v>50.94</v>
+      </c>
+      <c r="E37" s="10">
+        <v>47.67</v>
+      </c>
+      <c r="F37" s="10">
+        <v>51.22</v>
+      </c>
+      <c r="G37" s="10">
+        <v>57.16</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="12">
+        <v>120</v>
+      </c>
+      <c r="D38" s="13">
+        <v>51.19</v>
+      </c>
+      <c r="E38" s="13">
+        <v>47.81</v>
+      </c>
+      <c r="F38" s="13">
+        <v>51.81</v>
+      </c>
+      <c r="G38" s="13">
+        <v>57.27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="5">
         <v>130</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D39" s="10">
         <v>51.33</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E39" s="10">
         <v>47.68</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F39" s="10">
         <v>54.91</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G39" s="10">
         <v>57.3</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C36" s="14">
+    <row r="40" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C40" s="14">
         <v>150</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D40" s="15">
         <v>51.31</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E40" s="15">
         <v>47.56</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F40" s="15">
         <v>52.02</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G40" s="15">
         <v>57.47</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="14">
+    <row r="41" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C41" s="14">
         <v>170</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D41" s="15">
         <v>51.52</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E41" s="15">
         <v>47.43</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F41" s="15">
         <v>52.61</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G41" s="15">
         <v>57.49</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C38" s="14">
+    <row r="42" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="14">
         <v>200</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D42" s="15">
         <v>51.38</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E42" s="15">
         <v>47.58</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F42" s="15">
         <v>52.59</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G42" s="15">
         <v>57.73</v>
       </c>
     </row>
@@ -4781,10 +4969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4933,6 +5121,23 @@
         <v>48.38</v>
       </c>
     </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C11" s="14">
+        <v>100</v>
+      </c>
+      <c r="D11" s="15">
+        <v>46.21</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45.48</v>
+      </c>
+      <c r="F11" s="15">
+        <v>42.11</v>
+      </c>
+      <c r="G11" s="15">
+        <v>48.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/hyperparameters-graphs/Hyperparameter graphs.xlsx
+++ b/hyperparameters-graphs/Hyperparameter graphs.xlsx
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -211,6 +211,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -267,111 +270,6 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>OpenNLP!$C$5:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>OpenNLP!$D$5:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>49.93</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>52.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>52.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50.21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49.09</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5CA0-4B5F-8191-4384CBA4CE81}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenNLP!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Types</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
@@ -425,30 +323,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$E$5:$E$11</c:f>
+              <c:f>OpenNLP!$D$5:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>46.73</c:v>
+                  <c:v>49.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.9</c:v>
+                  <c:v>52.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>48.12</c:v>
+                  <c:v>52.38</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.59</c:v>
+                  <c:v>50.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.41</c:v>
+                  <c:v>50.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.34</c:v>
+                  <c:v>50.21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.78</c:v>
+                  <c:v>49.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,20 +354,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-5CA0-4B5F-8191-4384CBA4CE81}"/>
+              <c16:uniqueId val="{00000002-5CA0-4B5F-8191-4384CBA4CE81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$F$4</c:f>
+              <c:f>OpenNLP!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Subtypes</c:v>
+                  <c:v>Types</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -530,30 +428,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$F$5:$F$11</c:f>
+              <c:f>OpenNLP!$E$5:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>47</c:v>
+                  <c:v>46.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.52</c:v>
+                  <c:v>48.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.35</c:v>
+                  <c:v>48.12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.76</c:v>
+                  <c:v>47.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.64</c:v>
+                  <c:v>46.41</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50.73</c:v>
+                  <c:v>46.34</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.65</c:v>
+                  <c:v>44.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -561,20 +459,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5CA0-4B5F-8191-4384CBA4CE81}"/>
+              <c16:uniqueId val="{00000003-5CA0-4B5F-8191-4384CBA4CE81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$G$4</c:f>
+              <c:f>OpenNLP!$F$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Filtered</c:v>
+                  <c:v>Subtypes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,7 +480,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -593,11 +491,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -635,30 +533,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$G$5:$G$11</c:f>
+              <c:f>OpenNLP!$F$5:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>49.27</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.35</c:v>
+                  <c:v>52.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.72</c:v>
+                  <c:v>52.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56.87</c:v>
+                  <c:v>50.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.91</c:v>
+                  <c:v>50.64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.25</c:v>
+                  <c:v>50.73</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.56</c:v>
+                  <c:v>50.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,7 +564,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5CA0-4B5F-8191-4384CBA4CE81}"/>
+              <c16:uniqueId val="{00000004-5CA0-4B5F-8191-4384CBA4CE81}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -682,6 +580,135 @@
         <c:smooth val="0"/>
         <c:axId val="427291440"/>
         <c:axId val="427292752"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$C$5:$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$5:$G$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>49.27</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>56.35</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>56.72</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>55.91</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>55.25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>54.56</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-5CA0-4B5F-8191-4384CBA4CE81}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="427291440"/>
@@ -1014,6 +1041,141 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>OpenNLP!$C$33:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OpenNLP!$D$33:$D$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>51.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1BF2-4848-A1A9-526F299EC110}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenNLP!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Types</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
@@ -1037,10 +1199,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$42</c:f>
+              <c:f>OpenNLP!$C$33:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1060,15 +1222,21 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1076,39 +1244,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$D$33:$D$42</c:f>
+              <c:f>OpenNLP!$E$33:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50.75</c:v>
+                  <c:v>47.39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50.85</c:v>
+                  <c:v>47.51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.91</c:v>
+                  <c:v>47.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.9</c:v>
+                  <c:v>47.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.94</c:v>
+                  <c:v>47.67</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51.19</c:v>
+                  <c:v>47.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.33</c:v>
+                  <c:v>47.77</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.31</c:v>
+                  <c:v>47.68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.52</c:v>
+                  <c:v>47.68</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51.38</c:v>
+                  <c:v>47.56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,20 +1290,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1BF2-4848-A1A9-526F299EC110}"/>
+              <c16:uniqueId val="{00000002-1BF2-4848-A1A9-526F299EC110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenNLP!$E$32</c:f>
+              <c:f>OpenNLP!$F$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Types</c:v>
+                  <c:v>Subtypes</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1160,10 +1334,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$42</c:f>
+              <c:f>OpenNLP!$C$33:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1183,15 +1357,21 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1199,133 +1379,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$E$33:$E$42</c:f>
+              <c:f>OpenNLP!$F$33:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>47.39</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>47.51</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>47.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>47.59</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>47.67</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>47.81</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>47.68</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>47.56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>47.43</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.58</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1BF2-4848-A1A9-526F299EC110}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenNLP!$F$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Subtypes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>OpenNLP!$F$33:$F$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>50.04</c:v>
                 </c:pt>
@@ -1345,15 +1402,21 @@
                   <c:v>51.81</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>54.91</c:v>
+                  <c:v>51.81</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>51.91</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51.94</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>52.02</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>52.61</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>52.59</c:v>
                 </c:pt>
               </c:numCache>
@@ -1363,129 +1426,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1BF2-4848-A1A9-526F299EC110}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>OpenNLP!$G$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Filtered</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>OpenNLP!$G$33:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>55.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.47</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>57.49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>57.73</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1BF2-4848-A1A9-526F299EC110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1501,6 +1441,165 @@
         <c:smooth val="0"/>
         <c:axId val="511839568"/>
         <c:axId val="511839896"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Filtered</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$C$33:$C$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>200</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>OpenNLP!$G$33:$G$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>55.83</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>56.27</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>56.52</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>56.87</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>57.16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>57.27</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>57.38</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>57.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>57.3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>57.47</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>57.49</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>57.73</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-1BF2-4848-A1A9-526F299EC110}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="511839568"/>
@@ -4230,7 +4329,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4597,10 +4696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4790,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>70</v>
       </c>
@@ -4807,7 +4906,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="34" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C34" s="12">
         <v>80</v>
       </c>
@@ -4824,7 +4923,7 @@
         <v>56.27</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>90</v>
       </c>
@@ -4841,7 +4940,7 @@
         <v>56.52</v>
       </c>
     </row>
-    <row r="36" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="6">
         <v>100</v>
       </c>
@@ -4858,7 +4957,7 @@
         <v>56.87</v>
       </c>
     </row>
-    <row r="37" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>110</v>
       </c>
@@ -4875,7 +4974,7 @@
         <v>57.16</v>
       </c>
     </row>
-    <row r="38" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="12">
         <v>120</v>
       </c>
@@ -4892,71 +4991,106 @@
         <v>57.27</v>
       </c>
     </row>
-    <row r="39" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="5">
+    <row r="39" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="12">
+        <v>125</v>
+      </c>
+      <c r="D39" s="13">
+        <v>51.31</v>
+      </c>
+      <c r="E39" s="13">
+        <v>47.77</v>
+      </c>
+      <c r="F39" s="13">
+        <v>51.81</v>
+      </c>
+      <c r="G39" s="13">
+        <v>57.38</v>
+      </c>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="5">
         <v>130</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D40" s="10">
         <v>51.33</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E40" s="10">
         <v>47.68</v>
       </c>
-      <c r="F39" s="10">
-        <v>54.91</v>
-      </c>
-      <c r="G39" s="10">
+      <c r="F40" s="10">
+        <v>51.91</v>
+      </c>
+      <c r="G40" s="10">
         <v>57.3</v>
       </c>
     </row>
-    <row r="40" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C40" s="14">
+    <row r="41" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C41" s="14">
+        <v>135</v>
+      </c>
+      <c r="D41" s="15">
+        <v>51.22</v>
+      </c>
+      <c r="E41" s="15">
+        <v>47.68</v>
+      </c>
+      <c r="F41" s="15">
+        <v>51.94</v>
+      </c>
+      <c r="G41" s="15">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="14">
         <v>150</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D42" s="15">
         <v>51.31</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E42" s="15">
         <v>47.56</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F42" s="15">
         <v>52.02</v>
       </c>
-      <c r="G40" s="15">
+      <c r="G42" s="15">
         <v>57.47</v>
       </c>
     </row>
-    <row r="41" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C41" s="14">
+    <row r="43" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C43" s="14">
         <v>170</v>
       </c>
-      <c r="D41" s="15">
+      <c r="D43" s="15">
         <v>51.52</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E43" s="15">
         <v>47.43</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F43" s="15">
         <v>52.61</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G43" s="15">
         <v>57.49</v>
       </c>
     </row>
-    <row r="42" spans="3:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C42" s="14">
+    <row r="44" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C44" s="14">
         <v>200</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D44" s="15">
         <v>51.38</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E44" s="15">
         <v>47.58</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F44" s="15">
         <v>52.59</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G44" s="15">
         <v>57.73</v>
       </c>
     </row>
@@ -4972,7 +5106,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/hyperparameters-graphs/Hyperparameter graphs.xlsx
+++ b/hyperparameters-graphs/Hyperparameter graphs.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,14 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -166,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -216,6 +224,7 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,6 +577,114 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenNLP!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>OpenNLP!$C$5:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OpenNLP!$G$5:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>49.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54.56</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5CA0-4B5F-8191-4384CBA4CE81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -580,135 +697,7 @@
         <c:smooth val="0"/>
         <c:axId val="427291440"/>
         <c:axId val="427292752"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>OpenNLP!$G$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Filtered</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>OpenNLP!$C$5:$C$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>10</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>OpenNLP!$G$5:$G$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="7"/>
-                      <c:pt idx="0">
-                        <c:v>49.27</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>56.35</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>56.72</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>56.87</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>55.91</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>55.25</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>54.56</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-5CA0-4B5F-8191-4384CBA4CE81}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="427291440"/>
@@ -1064,10 +1053,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$44</c:f>
+              <c:f>OpenNLP!$C$33:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1099,9 +1088,15 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1109,10 +1104,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$D$33:$D$44</c:f>
+              <c:f>OpenNLP!$D$33:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>50.75</c:v>
                 </c:pt>
@@ -1144,9 +1139,15 @@
                   <c:v>51.31</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>51.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>51.52</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>51.45</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>51.38</c:v>
                 </c:pt>
               </c:numCache>
@@ -1199,10 +1200,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$44</c:f>
+              <c:f>OpenNLP!$C$33:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1234,9 +1235,15 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1244,10 +1251,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$E$33:$E$44</c:f>
+              <c:f>OpenNLP!$E$33:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>47.39</c:v>
                 </c:pt>
@@ -1279,9 +1286,15 @@
                   <c:v>47.56</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>47.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>47.43</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>47.58</c:v>
                 </c:pt>
               </c:numCache>
@@ -1334,10 +1347,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>OpenNLP!$C$33:$C$44</c:f>
+              <c:f>OpenNLP!$C$33:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
@@ -1369,9 +1382,15 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
@@ -1379,10 +1398,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenNLP!$F$33:$F$44</c:f>
+              <c:f>OpenNLP!$F$33:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>50.04</c:v>
                 </c:pt>
@@ -1414,9 +1433,15 @@
                   <c:v>52.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>52.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>52.61</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>52.58</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>52.59</c:v>
                 </c:pt>
               </c:numCache>
@@ -1426,6 +1451,156 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-1BF2-4848-A1A9-526F299EC110}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>OpenNLP!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Filtered</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>OpenNLP!$C$33:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>OpenNLP!$G$33:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>55.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.44</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>57.73</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1BF2-4848-A1A9-526F299EC110}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1441,165 +1616,7 @@
         <c:smooth val="0"/>
         <c:axId val="511839568"/>
         <c:axId val="511839896"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>OpenNLP!$G$32</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Filtered</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent4"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>OpenNLP!$C$33:$C$44</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>200</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>OpenNLP!$G$33:$G$44</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="12"/>
-                      <c:pt idx="0">
-                        <c:v>55.83</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>56.27</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>56.52</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>56.87</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>57.16</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>57.27</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>57.38</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>57.3</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>57.3</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>57.47</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>57.49</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>57.73</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-1BF2-4848-A1A9-526F299EC110}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="511839568"/>
@@ -4288,13 +4305,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>466724</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4327,10 +4344,10 @@
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4696,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,11 +4880,11 @@
         <v>54.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="17" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5062,35 +5079,69 @@
     </row>
     <row r="43" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C43" s="14">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D43" s="15">
-        <v>51.52</v>
+        <v>51.46</v>
       </c>
       <c r="E43" s="15">
-        <v>47.43</v>
+        <v>47.46</v>
       </c>
       <c r="F43" s="15">
-        <v>52.61</v>
+        <v>52.2</v>
       </c>
       <c r="G43" s="15">
-        <v>57.49</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C44" s="14">
+        <v>170</v>
+      </c>
+      <c r="D44" s="15">
+        <v>51.52</v>
+      </c>
+      <c r="E44" s="15">
+        <v>47.43</v>
+      </c>
+      <c r="F44" s="15">
+        <v>52.61</v>
+      </c>
+      <c r="G44" s="15">
+        <v>57.49</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C45" s="14">
+        <v>180</v>
+      </c>
+      <c r="D45" s="15">
+        <v>51.45</v>
+      </c>
+      <c r="E45" s="15">
+        <v>47.5</v>
+      </c>
+      <c r="F45" s="15">
+        <v>52.58</v>
+      </c>
+      <c r="G45" s="15">
+        <v>57.44</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C46" s="14">
         <v>200</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D46" s="15">
         <v>51.38</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E46" s="15">
         <v>47.58</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F46" s="15">
         <v>52.59</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G46" s="15">
         <v>57.73</v>
       </c>
     </row>
